--- a/data/combined data/combined data - 1 cleaning/cleaning step 4 - career/4.2 career_divided_unparsed_uncoded/career_marriage_unparsed_uncoded.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 4 - career/4.2 career_divided_unparsed_uncoded/career_marriage_unparsed_uncoded.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,11 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>CareerDateString_2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>CareerStringID</t>
         </is>
       </c>
@@ -451,9 +456,10 @@
           <t>1946. 7 월북 1954. 결혼, 김책공업대학 교원으로 활동</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>93</t>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -463,9 +469,10 @@
           <t>1953. 김일성과 결혼</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>154</t>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>160</t>
         </is>
       </c>
     </row>
@@ -475,9 +482,10 @@
           <t>1972. 김경희와 결혼</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>493</t>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>499</t>
         </is>
       </c>
     </row>
@@ -489,7 +497,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3559</t>
+          <t>1954</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3605</t>
         </is>
       </c>
     </row>
@@ -501,7 +514,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3986</t>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4228</t>
         </is>
       </c>
     </row>
@@ -513,7 +531,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3999</t>
+          <t>1953</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4245</t>
         </is>
       </c>
     </row>
